--- a/Linux_Commands.xlsx
+++ b/Linux_Commands.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="File Operations" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="275">
   <si>
     <t>File Operations</t>
   </si>
@@ -771,15 +771,6 @@
     <t>all commands executed in session</t>
   </si>
   <si>
-    <t>grep word</t>
-  </si>
-  <si>
-    <t>searches for line containing word</t>
-  </si>
-  <si>
-    <t>Search Word</t>
-  </si>
-  <si>
     <t>date| echo "Today is"</t>
   </si>
   <si>
@@ -841,13 +832,40 @@
   </si>
   <si>
     <t>find filename from root</t>
+  </si>
+  <si>
+    <t>accesstim -a,modification time -m</t>
+  </si>
+  <si>
+    <t>ls -i</t>
+  </si>
+  <si>
+    <t>list the files and directories with index numbers inodes</t>
+  </si>
+  <si>
+    <t>ls -d */</t>
+  </si>
+  <si>
+    <t>list directories</t>
+  </si>
+  <si>
+    <t>cd ~</t>
+  </si>
+  <si>
+    <t>change directory to the home directory</t>
+  </si>
+  <si>
+    <t>cd -</t>
+  </si>
+  <si>
+    <t>Go to the last working directory</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -862,6 +880,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF24292F"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -926,7 +950,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -951,6 +975,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1231,10 +1256,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D82"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87:C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1339,9 +1364,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C11">
-        <f>C17</f>
-        <v>0</v>
+      <c r="C11" t="s">
+        <v>266</v>
       </c>
       <c r="D11" t="s">
         <v>37</v>
@@ -1400,7 +1424,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>109</v>
       </c>
@@ -1408,8 +1432,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="9" t="s">
         <v>38</v>
       </c>
       <c r="B21" t="s">
@@ -1458,367 +1482,406 @@
         <v>178</v>
       </c>
     </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>267</v>
+      </c>
+      <c r="C28" t="s">
+        <v>268</v>
+      </c>
+    </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="B29" t="s">
+        <v>269</v>
+      </c>
+      <c r="C29" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="14"/>
+    </row>
+    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B31" t="s">
         <v>48</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C31" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B33" t="s">
         <v>44</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C33" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C32" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
         <v>46</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D34" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C33" t="s">
+    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C35" t="s">
         <v>56</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D35" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B36" t="s">
         <v>49</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C36" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C37" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>75</v>
+        <v>271</v>
       </c>
       <c r="C38" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>60</v>
-      </c>
-      <c r="B40" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>273</v>
+      </c>
+      <c r="C39" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="9" t="s">
+        <v>51</v>
+      </c>
       <c r="B41" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
         <v>63</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C47" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>186</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B49" t="s">
         <v>187</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C49" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C45" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C46" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+    <row r="52" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="53" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B53" t="s">
         <v>66</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C53" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+    <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="55" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B55" t="s">
         <v>69</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C55" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
         <v>71</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C56" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B52" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
         <v>73</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C57" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B53" t="s">
-        <v>79</v>
-      </c>
-      <c r="C53" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>129</v>
-      </c>
-      <c r="B55" t="s">
-        <v>111</v>
-      </c>
-      <c r="C55" t="s">
-        <v>112</v>
-      </c>
-      <c r="D55" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>128</v>
-      </c>
-      <c r="B57" t="s">
-        <v>114</v>
-      </c>
-      <c r="C57" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
+        <v>79</v>
+      </c>
+      <c r="C58" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="60" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B60" t="s">
+        <v>111</v>
+      </c>
+      <c r="C60" t="s">
+        <v>112</v>
+      </c>
+      <c r="D60" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B62" t="s">
+        <v>114</v>
+      </c>
+      <c r="C62" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B59" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
         <v>115</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C64" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B60" t="s">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
         <v>116</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C65" t="s">
         <v>123</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D65" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+    <row r="66" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="67" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B67" t="s">
         <v>119</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C67" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>124</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B68" t="s">
         <v>125</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C68" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+    <row r="69" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="70" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="9" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
         <v>147</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B71" t="s">
         <v>158</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C71" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>149</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B72" t="s">
         <v>159</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C72" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+    <row r="73" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="74" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B74" t="s">
         <v>221</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C74" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B70" t="s">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
         <v>152</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C75" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B71" t="s">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
         <v>153</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C76" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B72" t="s">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
         <v>156</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C77" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+    <row r="78" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="79" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B79" t="s">
         <v>165</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C79" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C75" t="s">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C80" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B76" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
         <v>167</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C81" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B78" t="s">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
         <v>174</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C83" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B79" t="s">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
         <v>171</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C84" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>247</v>
-      </c>
-      <c r="B82" t="s">
-        <v>245</v>
-      </c>
-      <c r="C82" t="s">
-        <v>246</v>
-      </c>
+    <row r="86" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="87" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1830,8 +1893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1843,31 +1906,31 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -1879,8 +1942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1907,26 +1970,26 @@
     </row>
     <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -1935,10 +1998,10 @@
     </row>
     <row r="7" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -2029,7 +2092,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -2061,7 +2124,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="1:4" s="6" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
@@ -2133,10 +2196,10 @@
     </row>
     <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -2202,7 +2265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
@@ -2441,10 +2504,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C38" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>

--- a/Linux_Commands.xlsx
+++ b/Linux_Commands.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="File Operations" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="278">
   <si>
     <t>File Operations</t>
   </si>
@@ -859,6 +859,15 @@
   </si>
   <si>
     <t>Go to the last working directory</t>
+  </si>
+  <si>
+    <t>Comapare Files</t>
+  </si>
+  <si>
+    <t>diff file1 file2</t>
+  </si>
+  <si>
+    <t>show Difference between two files</t>
   </si>
 </sst>
 </file>
@@ -1256,10 +1265,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87:C88"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1879,9 +1888,17 @@
         <v>172</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="87" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="9"/>
+    <row r="85" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="86" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="B86" t="s">
+        <v>276</v>
+      </c>
+      <c r="C86" t="s">
+        <v>277</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1942,8 +1959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Linux_Commands.xlsx
+++ b/Linux_Commands.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="File Operations" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="279">
   <si>
     <t>File Operations</t>
   </si>
@@ -690,9 +690,6 @@
   </si>
   <si>
     <t>touch file-{1..10}.txt</t>
-  </si>
-  <si>
-    <t>tar -cvf new.tar dir1</t>
   </si>
   <si>
     <t xml:space="preserve">free </t>
@@ -868,6 +865,12 @@
   </si>
   <si>
     <t>show Difference between two files</t>
+  </si>
+  <si>
+    <t>tar cvf new.tar dir1</t>
+  </si>
+  <si>
+    <t>After installation of the operating system, the ID 0 is assigned to the root user and the IDs 1 to 999 (both inclusive) are assigned to the system users and hence the ids for local user begins from 1000 onwards.</t>
   </si>
 </sst>
 </file>
@@ -1267,8 +1270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1374,7 +1377,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D11" t="s">
         <v>37</v>
@@ -1493,18 +1496,18 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
+        <v>266</v>
+      </c>
+      <c r="C28" t="s">
         <v>267</v>
-      </c>
-      <c r="C28" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
+        <v>268</v>
+      </c>
+      <c r="C29" t="s">
         <v>269</v>
-      </c>
-      <c r="C29" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1570,18 +1573,18 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
+        <v>270</v>
+      </c>
+      <c r="C38" t="s">
         <v>271</v>
-      </c>
-      <c r="C38" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
+        <v>272</v>
+      </c>
+      <c r="C39" t="s">
         <v>273</v>
-      </c>
-      <c r="C39" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1817,7 +1820,7 @@
         <v>151</v>
       </c>
       <c r="B74" t="s">
-        <v>221</v>
+        <v>277</v>
       </c>
       <c r="C74" t="s">
         <v>160</v>
@@ -1891,13 +1894,13 @@
     <row r="85" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="86" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="B86" t="s">
         <v>275</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
         <v>276</v>
-      </c>
-      <c r="C86" t="s">
-        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -1923,31 +1926,31 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2" t="s">
         <v>253</v>
-      </c>
-      <c r="C2" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C3" t="s">
         <v>256</v>
-      </c>
-      <c r="C3" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C5" t="s">
         <v>264</v>
-      </c>
-      <c r="C5" t="s">
-        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -1959,7 +1962,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B10" sqref="B10:C10"/>
     </sheetView>
   </sheetViews>
@@ -1982,31 +1985,31 @@
     <row r="2" spans="1:3" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B2" s="13"/>
       <c r="C2" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>251</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -2015,10 +2018,10 @@
     </row>
     <row r="7" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>245</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -2109,7 +2112,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -2131,7 +2134,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>218</v>
       </c>
@@ -2141,31 +2144,31 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="27" spans="1:4" s="6" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>229</v>
-      </c>
       <c r="D27" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
+        <v>229</v>
+      </c>
+      <c r="C36" t="s">
         <v>230</v>
-      </c>
-      <c r="C36" t="s">
-        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -2176,10 +2179,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2213,10 +2216,10 @@
     </row>
     <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="C3" t="s">
         <v>258</v>
-      </c>
-      <c r="C3" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -2270,6 +2273,11 @@
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="C12" s="10" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -2283,7 +2291,7 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2357,66 +2365,66 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
+        <v>223</v>
+      </c>
+      <c r="C11" t="s">
         <v>224</v>
-      </c>
-      <c r="C11" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
+        <v>231</v>
+      </c>
+      <c r="C12" t="s">
         <v>232</v>
-      </c>
-      <c r="C12" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
+        <v>233</v>
+      </c>
+      <c r="C13" t="s">
         <v>234</v>
-      </c>
-      <c r="C13" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
+        <v>235</v>
+      </c>
+      <c r="C14" t="s">
         <v>236</v>
-      </c>
-      <c r="C14" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
+        <v>237</v>
+      </c>
+      <c r="C15" t="s">
         <v>238</v>
-      </c>
-      <c r="C15" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
+        <v>242</v>
+      </c>
+      <c r="C16" t="s">
         <v>243</v>
-      </c>
-      <c r="C16" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -2521,10 +2529,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
+        <v>261</v>
+      </c>
+      <c r="C38" t="s">
         <v>262</v>
-      </c>
-      <c r="C38" t="s">
-        <v>263</v>
       </c>
     </row>
   </sheetData>
